--- a/src/main/insert personenbezogene Daten/4 Abteilung.xlsx
+++ b/src/main/insert personenbezogene Daten/4 Abteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91829B-46E1-42CB-BD47-16010995C93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BC8945-C4DD-4784-BADB-54F3A267E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34710" yWindow="2025" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33705" yWindow="1995" windowWidth="17280" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
